--- a/Listas de precios/mayorista/ESCUADRA para ALACENA DISMAY.xlsx
+++ b/Listas de precios/mayorista/ESCUADRA para ALACENA DISMAY.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="19">
@@ -1087,11 +1087,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/ESCUADRA para ALACENA DISMAY.xlsx
+++ b/Listas de precios/mayorista/ESCUADRA para ALACENA DISMAY.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="19">
@@ -1087,11 +1087,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A36:E36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/ESCUADRA para ALACENA DISMAY.xlsx
+++ b/Listas de precios/mayorista/ESCUADRA para ALACENA DISMAY.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="19">
@@ -1087,11 +1087,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
